--- a/Abstract-Feature-Extraction/ModelLog.xlsx
+++ b/Abstract-Feature-Extraction/ModelLog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selenaling/Documents/Unnnnndergraduate/2018_EvolutionaryArt/Generative-Art-Research/Abstract-Feature-Extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zling/Desktop/Generative-Art-Research/Abstract-Feature-Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>711Train_vgg10ep</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Use mse loss function instead of custom function</t>
   </si>
   <si>
-    <t>718Trin_ctm100ep_rd</t>
-  </si>
-  <si>
     <t>Use Hans' Model with built-in loss function</t>
   </si>
   <si>
@@ -151,6 +148,18 @@
   </si>
   <si>
     <t>plot showing fit distribution; evo-art prediction show some outliers;</t>
+  </si>
+  <si>
+    <t>718Train_ctm100ep_rd</t>
+  </si>
+  <si>
+    <t>815Train_ctm200ep_rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As above </t>
+  </si>
+  <si>
+    <t>Added 867 blank images as r=0</t>
   </si>
 </sst>
 </file>
@@ -477,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,21 +646,32 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Abstract-Feature-Extraction/ModelLog.xlsx
+++ b/Abstract-Feature-Extraction/ModelLog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>711Train_vgg10ep</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Added 867 blank images as r=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyzed heatmaps shows lower value for blank regions; </t>
   </si>
 </sst>
 </file>
@@ -673,6 +676,9 @@
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Abstract-Feature-Extraction/ModelLog.xlsx
+++ b/Abstract-Feature-Extraction/ModelLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-49900" yWindow="460" windowWidth="46240" windowHeight="25960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>711Train_vgg10ep</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Added another FC layer (512)</t>
   </si>
   <si>
-    <t>✔；looks good</t>
-  </si>
-  <si>
     <t>712Train_vgg10ep</t>
   </si>
   <si>
@@ -80,89 +77,106 @@
     <t xml:space="preserve">Regenerated Rd_Smooth image sets with png format; </t>
   </si>
   <si>
-    <t>✔; have some abnormity: Rd_Smooth image sets give large error</t>
-  </si>
-  <si>
     <t xml:space="preserve">Same as above; Just training for more epochs; </t>
   </si>
   <si>
-    <t>✔; Rd_Smooth image still give poor results than others</t>
-  </si>
-  <si>
     <t>712Train_vgg100ep (GPU 0)</t>
   </si>
   <si>
-    <t>✔；trained on the wrong image set ✖️</t>
-  </si>
-  <si>
     <t>713Train_vgg26ep_col</t>
   </si>
   <si>
-    <t xml:space="preserve">✔；
+    <t>Revised the loss function so that it considers 
+the batch size to be 100 instead of 300</t>
+  </si>
+  <si>
+    <t>No change;</t>
+  </si>
+  <si>
+    <t>713Train_vgg100ep</t>
+  </si>
+  <si>
+    <t>713Train_nvgg100ep_col</t>
+  </si>
+  <si>
+    <t>717Train_vgg100ep_rd</t>
+  </si>
+  <si>
+    <t>Only Roundness Images (no smooth image, only blurred strokes)</t>
+  </si>
+  <si>
+    <t>Use mse loss function instead of custom function</t>
+  </si>
+  <si>
+    <t>Use Hans' Model with built-in loss function</t>
+  </si>
+  <si>
+    <t>recognize the smooth shape better; plot not showing super fit distribtuion</t>
+  </si>
+  <si>
+    <t>plot showing fit distribution; evo-art prediction show some outliers;</t>
+  </si>
+  <si>
+    <t>718Train_ctm100ep_rd</t>
+  </si>
+  <si>
+    <t>815Train_ctm200ep_rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As above </t>
+  </si>
+  <si>
+    <t>Added 867 blank images as r=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyzed heatmaps shows lower value for blank regions; </t>
+  </si>
+  <si>
+    <t>817Train_ctm200ep_rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactored processing code so that the stroke color and background color differ by at least 70; 
+removed images with blur=3/4; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recognizes the inner noise better! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: recognizes overall roundness better; 
+still bad at recognize the color-smooth round shapes;
+M: personally wouldn’t agree with the prediction 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Weird patterns, reach a flat plateau in messiness prediction; 
 might be the problem of loss function???
 Prediction Visualization shows better recognition of complexity within a central area; </t>
   </si>
   <si>
-    <t>✔；</t>
-  </si>
-  <si>
-    <t>Revised the loss function so that it considers 
-the batch size to be 100 instead of 300</t>
-  </si>
-  <si>
-    <t>No change;</t>
-  </si>
-  <si>
-    <t>713Train_vgg100ep</t>
-  </si>
-  <si>
-    <t>713Train_nvgg100ep_col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔； 
-R: recognizes overall roundness better; 
-still bad at recognize the color-smooth round shapes;
-M: personally wouldn’t agree with the prediction 
+    <t>Rd_Smooth image still give poor results than others</t>
+  </si>
+  <si>
+    <t>trained on the wrong image set ✖️</t>
+  </si>
+  <si>
+    <t>looks good</t>
+  </si>
+  <si>
+    <t>have some abnormity: Rd_Smooth image sets give large error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower test score -&gt; less data images?;
+Recognizes the inperceptiable gradients less, especially with "Images/evo_art_test/Image-1.jpg";
+Gives much lower score to blurred circles, shown by "evo_art_test/image-49.jpg"
 </t>
   </si>
   <si>
-    <t xml:space="preserve">✔； 
-recognizes the inner noise better! 
-</t>
-  </si>
-  <si>
-    <t>717Train_vgg100ep_rd</t>
-  </si>
-  <si>
-    <t>Only Roundness Images (no smooth image, only blurred strokes)</t>
-  </si>
-  <si>
-    <t>Use mse loss function instead of custom function</t>
-  </si>
-  <si>
-    <t>Use Hans' Model with built-in loss function</t>
-  </si>
-  <si>
-    <t>recognize the smooth shape better; plot not showing super fit distribtuion</t>
-  </si>
-  <si>
-    <t>plot showing fit distribution; evo-art prediction show some outliers;</t>
-  </si>
-  <si>
-    <t>718Train_ctm100ep_rd</t>
-  </si>
-  <si>
-    <t>815Train_ctm200ep_rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As above </t>
-  </si>
-  <si>
-    <t>Added 867 blank images as r=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyzed heatmaps shows lower value for blank regions; </t>
+    <t>818Train_ctm200ep_rd</t>
+  </si>
+  <si>
+    <t>added images with blur=3/4 but with heavier stroke weights;</t>
   </si>
 </sst>
 </file>
@@ -489,17 +503,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="55.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -537,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -551,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,119 +579,141 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="154" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Abstract-Feature-Extraction/ModelLog.xlsx
+++ b/Abstract-Feature-Extraction/ModelLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-49900" yWindow="460" windowWidth="46240" windowHeight="25960" tabRatio="500"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="45380" windowHeight="27160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>711Train_vgg10ep</t>
   </si>
@@ -126,17 +126,7 @@
     <t xml:space="preserve">As above </t>
   </si>
   <si>
-    <t>Added 867 blank images as r=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyzed heatmaps shows lower value for blank regions; </t>
-  </si>
-  <si>
     <t>817Train_ctm200ep_rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactored processing code so that the stroke color and background color differ by at least 70; 
-removed images with blur=3/4; </t>
   </si>
   <si>
     <t xml:space="preserve"> recognizes the inner noise better! 
@@ -167,24 +157,158 @@
     <t>have some abnormity: Rd_Smooth image sets give large error</t>
   </si>
   <si>
+    <t>818Train_ctm200ep_rd</t>
+  </si>
+  <si>
+    <t>819Train_ctm200ep_rd</t>
+  </si>
+  <si>
+    <t>analyzed heatmaps shows lower value for blank regions; 
+1."evo_art_test/Image-1.jpg": 1.79
+2."General/image-22.jpg":1.38
+3. "evo_art_test/image-49.jpg": 6.97</t>
+  </si>
+  <si>
     <t xml:space="preserve">lower test score -&gt; less data images?;
-Recognizes the inperceptiable gradients less, especially with "Images/evo_art_test/Image-1.jpg";
-Gives much lower score to blurred circles, shown by "evo_art_test/image-49.jpg"
+Recognizes the inperceptiable gradients less, especially with 
+1. "evo_art_test/Image-1.jpg": 1.76;
+2. "General/image-22.jpg": 1.02
+Gives much lower score to blurred circles, shown by 
+3. "evo_art_test/image-49.jpg": 1.64
 </t>
   </si>
   <si>
-    <t>818Train_ctm200ep_rd</t>
-  </si>
-  <si>
-    <t>added images with blur=3/4 but with heavier stroke weights;</t>
+    <t>Gives slightly higher score to both 
+1. "evo_art_test/Image-1.jpg" : 2.34
+2. "General/image-22.jpg": 1.43
+Gives slightly higher score to the blurred circle image 
+3. "evo_art_test/image-49": 2.27</t>
+  </si>
+  <si>
+    <t>Gives relatively low score to both 
+1. "evo_art_test/Image-1.jpg" : 1.53
+2. "General/image-22.jpg": 1.59
+Gives lower score to the blurred circle image 
+3. "evo_art_test/image-49": 1.96</t>
+  </si>
+  <si>
+    <t>819Train2_ctm200ep_rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Just want to check if the same model would return the same result after the same number of epochs;
+1. Showed different prediction for images even with the random seeding; -&gt; how to prevent that? </t>
+  </si>
+  <si>
+    <t>As above; (Images/Roundness_819)</t>
+  </si>
+  <si>
+    <t>Rd_EllCurves's blur=3/4 images have heavier weights; (Images/Roundness_819)</t>
+  </si>
+  <si>
+    <t>added images with blur=3/4 but with heavier stroke weights; (Images/Roundness_818)</t>
+  </si>
+  <si>
+    <t>Refactored processing code so that the stroke color and background color differ by at least 70; 
+removed images with blur=3/4; (Images/Roundness_817)</t>
+  </si>
+  <si>
+    <t>Added 867 blank images as r=0 (Images/Roundness_815)</t>
+  </si>
+  <si>
+    <r>
+      <t>Summary up to 8/21:  
+Folder Name Convention:  
+A. For train folders: 'ctm' stands for customized model; 'vgg' stands for vgg19 model. 
+B. For predict folder: the words after the first underline is the model used for prediction, and the word after the second underline is the parameter predicted, and the last word shows the images used for prediction. 
+C. For test folder: the words after the first underline is the model used for testing, and the word after the second underline is the parameter tested, and the last word shows the images used for testing. 
+1. Currently we are focusing on single parameter training on 'Roundness' alone. Training images are generated by codes in ProcessingSketches folder. The training images for the most recent models are listed above, and they can be found in the Abstract-Feature-Extraction/Images folder.  
+2. During the last stage of our research, we were testing the influence of blurred images on model prediction (with model '815Train_ctm200ep_rd' and '817Train_ctm200ep_rd'). And the revisions to our datasets are described in the third column above. The results did not show too much improvement. 
+3.  The last two models we trained ('819Train_ctm200ep_rd' and '819Train2_ctm200ep_rd' )  are trained with the same architecture and on the same image datasets. The predictions are not consistent between these two models. This is a problem that can be tackled in the future. 
+4.  Possible future directions:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Instead of trying to capture the level of feature presence in the range of 0 to 10, try binary classification, for example r=1 if curviness exits and r=0 if all straight lines. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">b. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To visualize filter activation for the deeper layers. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> To further tune the model using the visualization and analysis tool; To tune the other parameters, such as messiness and color gradient in the same fashion. 
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -212,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -225,6 +349,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -579,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -593,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
@@ -607,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -632,7 +762,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -646,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -677,7 +807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -685,38 +815,80 @@
         <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="18" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="284" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>